--- a/Tesztelés.xlsx
+++ b/Tesztelés.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\12\Szoftvertesztelés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7016014-F8FB-4362-A939-BBD6FDDC7111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEEABAB-B8B5-4463-B12E-603859EEDCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA29F9FF-64AF-4467-8B0E-04136EBDBC95}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>Sorszám</t>
   </si>
@@ -58,13 +58,130 @@
   </si>
   <si>
     <t>20 hiba keresés + 10 jó</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>11.</t>
+  </si>
+  <si>
+    <t>12.</t>
+  </si>
+  <si>
+    <t>13.</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>Az adott gyalogra elsőre kattintás</t>
+  </si>
+  <si>
+    <t>a gyalogok első lépésénél kettőt is tudnak előre lépni</t>
+  </si>
+  <si>
+    <t>Nincs hiba</t>
+  </si>
+  <si>
+    <t>HIBA</t>
+  </si>
+  <si>
+    <t>Az óra hozzáadása</t>
+  </si>
+  <si>
+    <t>ha az órát hozzáadtuk, akkor ha az idő letelik jelzi nekünk a program, hogy letelt az idő és már nem enged tovább játszani</t>
+  </si>
+  <si>
+    <t>a nehézség beállítása</t>
+  </si>
+  <si>
+    <t>helyesen beállítja a szintet és hiba nélkül megy a játék</t>
+  </si>
+  <si>
+    <t>A számokhoz nincs hozzárendelve a kép</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +190,38 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,8 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -430,21 +575,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F332B0-44CB-45E7-B3E5-08161F217361}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,28 +602,339 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F086328-A4DA-43A7-A597-6CA139E9636E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,6 +945,109 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
